--- a/biology/Botanique/Cyclamen_rohlfsianum/Cyclamen_rohlfsianum.xlsx
+++ b/biology/Botanique/Cyclamen_rohlfsianum/Cyclamen_rohlfsianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclamen rohlfsianum Asch. est une espèce de plantes à fleurs de la famille des Primulaceae endémique dans un petit secteur de la Cyrénaïque en Libye, où il pousse dans les anfractuosités des rochers.
 Étymologie :  du nom l'explorateur allemand, Friedrich Gerhard Rohlfs, qui l’a découvert au XIXe siècle.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs odorantes, qui apparaissent à la fin de l’été, se reconnaissent à leurs étamines exsertes – comme celles de la gyroselle de Virginie (Dodecatheon meadia).
 Une autre particularité à signaler : tandis qu’après fécondation, le pédoncule floral de la plupart des espèces se tord en tire-bouchon à partir du sommet, celui du cyclamen de Rohlfs le fait à partir de la base.
